--- a/tests/files/test_io3.xlsx
+++ b/tests/files/test_io3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,14 +436,53 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pd</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
